--- a/cheo_mapping_specification.xlsx
+++ b/cheo_mapping_specification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komalgilani/Documents/GitHub/cdio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komalgilani/Documents/GitHub/cheo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CB8DE8-76CD-DD4A-8501-ECCE8C6C635D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCDD5F4-00E8-E042-8F58-46D56B72F168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="-23320" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{0466CC29-52C2-604A-ABFC-39BB9EDA87F2}"/>
+    <workbookView xWindow="220" yWindow="-23320" windowWidth="27640" windowHeight="16940" xr2:uid="{0466CC29-52C2-604A-ABFC-39BB9EDA87F2}"/>
   </bookViews>
   <sheets>
     <sheet name="why BFO" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="261">
   <si>
     <t>Criterion</t>
   </si>
@@ -875,6 +875,9 @@
   </si>
   <si>
     <t>Data Property</t>
+  </si>
+  <si>
+    <t>Number of ontologies fully supporting BFO are far less in number &lt;100</t>
   </si>
 </sst>
 </file>
@@ -1445,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC332CB-BF81-D349-B5A7-8E8783689EEE}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1566,6 +1569,9 @@
       </c>
       <c r="E7" s="1" t="s">
         <v>176</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -1625,7 +1631,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="85">
+    <row r="2" spans="1:8" ht="113">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -4096,8 +4102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE51D3BB-88C0-454F-8082-B3B045548427}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
